--- a/figures/WGCNA_summary_table.xlsx
+++ b/figures/WGCNA_summary_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -74,6 +74,15 @@
     <t xml:space="preserve">D2HDH_HUMAN, BMT5_SCHPO</t>
   </si>
   <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RS15A_BOVIN, C1TC_HUMAN, HBS1L_HUMAN, MSH2_MOUSE, SGPL1_RAT, IPO9_MOUSE, CFA57_MOUSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">black</t>
   </si>
   <si>
@@ -101,6 +110,12 @@
     <t xml:space="preserve">FAD12_MORIS</t>
   </si>
   <si>
+    <t xml:space="preserve">purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE164_HUMAN, MSRB2_ARATH, PTR1_SCHPO, NIPS2_MOUSE, HDA1A_XENLA, FETC_ASPFU</t>
+  </si>
+  <si>
     <t xml:space="preserve">greenyellow</t>
   </si>
   <si>
@@ -110,6 +125,12 @@
     <t xml:space="preserve">CNE1_CRYNH, PPIL2_SCHPO, SPTC1_SCHPO</t>
   </si>
   <si>
+    <t xml:space="preserve">salmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTLL4_HUMAN, UCP7_SCHPO, M810_ARATH, DRC5_MACFA, CWC22_EMENI</t>
+  </si>
+  <si>
     <t xml:space="preserve">tan</t>
   </si>
   <si>
@@ -119,6 +140,12 @@
     <t xml:space="preserve">CRN5_PHYIN, DBP4_USTMA</t>
   </si>
   <si>
+    <t xml:space="preserve">cyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP4A_XENLA, KAR3_SCHPO, MIP1_SCHPO, CNX2_ARATH</t>
+  </si>
+  <si>
     <t xml:space="preserve">grey60</t>
   </si>
   <si>
@@ -155,6 +182,30 @@
     <t xml:space="preserve">YAGC_SCHPO, YCJD_SCHPO</t>
   </si>
   <si>
+    <t xml:space="preserve">darkgreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMP52_CANAL, EGCR1_RHIO9, CDA_COLLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRP1_CHICK, VPS51_DICDI, PSA6_BOVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkturquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPCB_CRIGR, PLPL_CHAGB, OSGEP_DROME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightyellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFKA_SCHPO, CP135_HUMAN, RAB1C_ARATH</t>
+  </si>
+  <si>
     <t xml:space="preserve">royalblue</t>
   </si>
   <si>
@@ -162,6 +213,12 @@
   </si>
   <si>
     <t xml:space="preserve">SKI2_SCHPO, ABCA4_HUMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneID:77287121</t>
   </si>
 </sst>
 </file>
@@ -189,7 +246,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,77 +255,122 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF40E0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA52A2A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADFF2F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B48C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF191970"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA52A2A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2B48C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF40E0D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADFF2F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA8072"/>
+        <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CED1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4169E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBEBE"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -301,6 +403,15 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -596,19 +707,19 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -702,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -736,10 +847,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -753,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -770,101 +881,254 @@
         <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
